--- a/biology/Botanique/Reinette_Newtown/Reinette_Newtown.xlsx
+++ b/biology/Botanique/Reinette_Newtown/Reinette_Newtown.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Reinette Newtown est le nom de la pomme d'un cultivar de pommier domestique.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Reinette Albemarle, Newtown Pippin, Albemarle Pippin, Yellow Newtown.
 </t>
@@ -542,13 +556,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Usage : à couteau, à cuire et à cidre ;
-Couleur de peau : vert clair à vert sombre, passant au jaune olive quand la pomme arrive à maturité. Le fruit est panaché de roux et ombré de roux autour du pédoncule, ponctué de points gris blanc et très légèrement coloré de rouge sombre du côté exposé au soleil[1].
-Chair : jaune, fine, ferme, acidulée[1],[2].
-Selon Downing, un pomologue américain du XIXe siècle, cette pomme est « sans rivale comme fruit de dessert »[1].
-La Reinette Newtown doit être cultivée sur un sol « riche, profond et chaud »[1]. Selon Darwin, elle pousserait mal en Angleterre, car les étés ne sont pas assez chauds[3].
+Couleur de peau : vert clair à vert sombre, passant au jaune olive quand la pomme arrive à maturité. Le fruit est panaché de roux et ombré de roux autour du pédoncule, ponctué de points gris blanc et très légèrement coloré de rouge sombre du côté exposé au soleil.
+Chair : jaune, fine, ferme, acidulée,.
+Selon Downing, un pomologue américain du XIXe siècle, cette pomme est « sans rivale comme fruit de dessert ».
+La Reinette Newtown doit être cultivée sur un sol « riche, profond et chaud ». Selon Darwin, elle pousserait mal en Angleterre, car les étés ne sont pas assez chauds.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Reinette Newtown a été découverte à Newtown, Long Island, New York (États-Unis), vers 1666. Elle a d'abord été très cultivée dans le New Jersey, puis elle s'est répandue vers le milieu du XVIIIe siècle, en particulier en Angleterre ou en Belgique[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Reinette Newtown a été découverte à Newtown, Long Island, New York (États-Unis), vers 1666. Elle a d'abord été très cultivée dans le New Jersey, puis elle s'est répandue vers le milieu du XVIIIe siècle, en particulier en Angleterre ou en Belgique.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cultivars : la Green Newtown Pippin et la Yellow Newtown Pippin, la plus cultivée
 Descendants : Newtown Delicious = Yellow Newtown x Red Delicious</t>
@@ -639,10 +659,12 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La Reinette Newtown est une variété diploïde dite « à bon pollen » :
-Groupe de floraison : C[4]</t>
+Groupe de floraison : C</t>
         </is>
       </c>
     </row>
@@ -670,10 +692,12 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Zones de rusticité : 4 à 8
-Cueillette : La date de la cueillette varie selon les auteurs, peut-être en fonction du pays où l'arbre est planté. Elle aurait lieu fin octobre, mais selon un auteur belge du XIXe siècle, le fruit arrive à maturité dans la période de décembre à mai, et il serait idéalement meilleur en mars. L'arbre est dit « très fertile, d'une vigueur moyenne, [et qui] croît lentement. »[1]
+Cueillette : La date de la cueillette varie selon les auteurs, peut-être en fonction du pays où l'arbre est planté. Elle aurait lieu fin octobre, mais selon un auteur belge du XIXe siècle, le fruit arrive à maturité dans la période de décembre à mai, et il serait idéalement meilleur en mars. L'arbre est dit « très fertile, d'une vigueur moyenne, [et qui] croît lentement. »
 Conservation : jusque fin avril en chambre froide</t>
         </is>
       </c>
